--- a/class_schedules/RHETORIC & COMPOSITION PRACTICA (RTCP).xlsx
+++ b/class_schedules/RHETORIC & COMPOSITION PRACTICA (RTCP).xlsx
@@ -14,84 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>502</t>
-  </si>
-  <si>
-    <t>521A</t>
-  </si>
-  <si>
-    <t>521B</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>107</t>
   </si>
   <si>
     <t>01</t>
   </si>
   <si>
-    <t>14768</t>
-  </si>
-  <si>
-    <t>1301</t>
-  </si>
-  <si>
-    <t>1302</t>
-  </si>
-  <si>
-    <t>6992</t>
-  </si>
-  <si>
-    <t>6993</t>
+    <t>11408</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>HPRF in Context: Music of Engl T</t>
-  </si>
-  <si>
-    <t>Intro Historical Performance TR</t>
-  </si>
-  <si>
-    <t>Graduate Studies Hist</t>
-  </si>
-  <si>
-    <t>0430-0525pm</t>
-  </si>
-  <si>
-    <t>0115-0225pm</t>
-  </si>
-  <si>
-    <t>Perform</t>
-  </si>
-  <si>
-    <t>CBIB</t>
+    <t>Practicum in</t>
+  </si>
+  <si>
+    <t>Journalism</t>
   </si>
   <si>
     <t>TBA</t>
   </si>
   <si>
-    <t>325</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>Breitman David</t>
+    <t>Cooper Jan</t>
   </si>
 </sst>
 </file>
@@ -449,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,171 +444,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
